--- a/biology/Botanique/Millepertuis_hirsute/Millepertuis_hirsute.xlsx
+++ b/biology/Botanique/Millepertuis_hirsute/Millepertuis_hirsute.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypericum hirsutum
 Le Millepertuis hérissé, Millepertuis hirsute ou Millepertuis pubescent (Hypericum hirsutum L.), est une espèce de plantes à fleurs de la famille des Clusiacées selon la classification classique (ou des Hypéricacées selon la classification phylogénétique).
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hypericum hirsutum est une plante herbacée vivace d'une hauteur de 40 à 80 cm. Elle se distingue des autres millepertuis notamment par le fait qu'elle est densément pubescente et par ses cils glanduleux noirs qui bordent les sépales[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypericum hirsutum est une plante herbacée vivace d'une hauteur de 40 à 80 cm. Elle se distingue des autres millepertuis notamment par le fait qu'elle est densément pubescente et par ses cils glanduleux noirs qui bordent les sépales.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le millepertuis hérissé est présent en Europe, surtout centrale et boréale, et en Asie occidentale, de l'Arménie à la Sibérie[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le millepertuis hérissé est présent en Europe, surtout centrale et boréale, et en Asie occidentale, de l'Arménie à la Sibérie.
 On le trouve presque partout en France, mais il est absent de Corse.
 </t>
         </is>
@@ -575,9 +591,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bois, talus, bords des chemins, prés ombragés ; préférence pour le calcaire[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bois, talus, bords des chemins, prés ombragés ; préférence pour le calcaire.
 </t>
         </is>
       </c>
